--- a/DOM_Banner/output/dept0713/Sairam Parthasarathy_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Sairam Parthasarathy_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; School of Transborder Studies, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Southwest Interdiciplinary Research Center, School of Social Work, Arizona State University, Phoenix, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, USA; Center for Health Equity Research, Department of Health Sciences, Northern Arizona University, Flagstaff, USA; Center for Health Equity Research, Department of Health Sciences, Northern Arizona University, Flagstaff, USA; Department of Family Medicine, Center for Health Equity and Community Engagement Research, Mayo Clinic, Rochester, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220790613</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Narratives from African American/Black, American Indian/Alaska Native, and Hispanic/Latinx community members in Arizona to enhance COVID-19 vaccine and vaccination uptake</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10865-022-00300-x</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35322313</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10865-022-00300-x</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Allergy, Critical Care, and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Internal Medicine, The University of North Dakota School of Medicine, Grand Forks, ND 58203, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital and Division of Sleep Medicine, Harvard Medical School, Boston, MA 02115, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Sleep Medicine, The University of Arizona College of Medicine, Phoenix, AZ 85006, USA; The Intermountain Healthcare, Merrill Gappmayer Family Medicine Center, Provo, UT 84604, USA; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ 85719, USA; Department of Child Health, University of Missouri School of Medicine, Columbia, MO 65201, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229052959</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Obstructive Sleep Apnea as a Risk Factor for COVID-19 Severity—The Gut Microbiome as a Common Player Mediating Systemic Inflammation via Gut Barrier Dysfunction</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35563874</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cells11091569</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Arizona State University; Johns Hopkins School of Medicine; Sleep and Circadian Research Laboratory, Department of Psychiatry, University of Michigan, Ann Arbor, USA; College of Health Solutions, Arizona State University, Phoenix, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA; Community Mental Health Nursing Department, College of Nursing, University of South Alabama, Mobile, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Pain Research &amp; Intervention Center of Excellence, University of Florida, Gainesville, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295540300</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Circadian Rhythm and Pain: a Review of Current Research and Future Implications</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Current Sleep Medicine Reports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40675-022-00228-3</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40675-022-00228-3</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Psychiatry, University of California, San Diego, La Jolla, CA, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Psychology, California State University, San Marcos, CA, United States; Department of Kinesiology and Nutrition Sciences, Univeristy of Nevada, Las Vegas, NV, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Psychiatry and Behavioral Sciences, Johns Hopkins University, Baltimore, MD, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309308783</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Circadian acclimatization of performance, sleep, and 6-sulfatoxymelatonin using multiple phase shifting stimuli</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Endocrinology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.964681</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36465660</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.964681</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; UAHS Center for Biomedical Informatics and Biostatistics, University of Arizona, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; Clinical Cardiovascular Research Center, University of Rochester Medical Center, USA; Division of Clinical Data Analytics and Decision Support, University of Arizona College of Medicine, Phoenix, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; Division of Sleep and Circadian Disorders, Brigham and Women's Hospital, Harvard Medical School, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA; UAHS Center for Sleep and Circadian Sciences, University of Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224260941</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Markers of ventricular repolarization and overall mortality in sleep disordered breathing</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.04.016</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35533628</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.04.016</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona Health Sciences Center for Sleep &amp; Circadian Sciences, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Pediatrics, Steele Children’s Research Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Pediatrics, Steele Children’s Research Center, University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona Health Sciences Center for Sleep &amp; Circadian Sciences, University of Arizona College of Medicine, Tucson, AZ, USA; The University of Arizona College of Pharmacy, Tucson, AZ, USA; Department of Pediatrics, Steele Children’s Research Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Pediatrics, Steele Children’s Research Center, University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona Health Sciences Center for Sleep &amp; Circadian Sciences, University of Arizona College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295210981</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Interactive Effect of Combined Intermittent and Sustained Hypoxia and High-Fat Diet on the Colonic Mucosal Microbiome and Host Gene Expression in Mice</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Nature and Science of Sleep</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Dove Medical Press</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2147/nss.s370957</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36111259</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2147/nss.s370957</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Psychiatry, University of California, San Diego, San Diego, CA, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Medicine and Psychology and Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL, United States; Aarhus Institute of Advanced Studies, Aarhus University, Aarhus, Denmark; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Nox Health, Suwanee, GA, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214914411</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Optimizing a Behavioral Sleep Intervention for Gynecologic Cancer Survivors: Study Design and Protocol</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frontiers in Neuroscience</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fnins.2022.818718</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35310101</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fnins.2022.818718</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Cincinnati College of Medicine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281670719</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0484 Trouble Sleeping Predicts Future Decreased Quality of Life in Young Children with Fontan Circulation</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.481</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.481</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona; Formerly Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Formerly Jazz Pharmaceuticals; Formerly Evidation Health; Evidation Health; Formerly Evidation Health; Evidation Health; Evidation Health; Jazz Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281711026</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0760 Excessive daytime sleepiness, positive airway pressure, and patient satisfaction with multiple aspects of care in a real-world population with obstructive sleep apnea</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.756</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.756</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281873662</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>University of Arizona; Formerly Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Formerly Jazz Pharmaceuticals; Formerly Evidation Health; Evidation Health; Formerly Evidation Health; Evidation Health; Evidation Health; Jazz Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282011829</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0759 A real world study assessing patient satisfaction in the primary care setting in relation to excessive daytime sleepiness in participants with obstructive sleep apnea</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.755</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.755</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293067000</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Section of Pulmonary, Critical Care and Sleep Medicine, Yale School of Medicine, New Haven, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293556892</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Sleep in Critical Illness: Future Directions</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_17</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_17</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293557746</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Mechanical Ventilation and Sleep</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-06447-0_10</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; ; The Division of Vascular Surgery, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; R. Ken Coit College of Pharmacy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312096929</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36597549</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.21.521463</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>University of arizona , Tucson, Arizona , United States; University of Arizona , Tucson, Arizona , United States; university of arizona , Tucson, Arizona , United States; University of Arizona , Tucson, Arizona , United States; University of Arizona , Tuscon, Arizona , United States; University of Arizona , Tucson, Arizona , United States</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312104078</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>ASSOCIATION BETWEEN UPPER EXTREMITY FUNCTION AND ADVERSE OUTCOMES IN OLDER ADULTS WITH COPD</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Innovation in Aging</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>University of Oxford</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/geroni/igac059.2316</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/geroni/igac059.2316</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Sairam Parthasarathy_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Sairam Parthasarathy_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arizona State University; Johns Hopkins School of Medicine; Sleep and Circadian Research Laboratory, Department of Psychiatry, University of Michigan, Ann Arbor, USA; College of Health Solutions, Arizona State University, Phoenix, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA; Community Mental Health Nursing Department, College of Nursing, University of South Alabama, Mobile, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Pain Research &amp; Intervention Center of Excellence, University of Florida, Gainesville, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA</t>
+          <t>Arizona State University; Johns Hopkins School of Medicine; Sleep and Circadian Research Laboratory, Department of Psychiatry, University of Michigan, Ann Arbor, MI, USA; College of Health Solutions, Arizona State University, Phoenix, USA; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, University of Arizona, Tucson, USA; Edson College of Nursing and Health Innovation, Arizona State University, Health North, Suite 301, 550 N 3rd Street, Phoenix, AZ, 85004, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA; Pain Research &amp; Intervention Center of Excellence, University of Florida, Gainesville, USA; Edson College of Nursing and Health Innovation, Arizona State University, Phoenix, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Psychiatry, University of California, San Diego, San Diego, CA, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Medicine and Psychology and Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL, United States; Aarhus Institute of Advanced Studies, Aarhus University, Aarhus, Denmark; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Center for Circadian and Sleep Medicine, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Nox Health, Suwanee, GA, United States</t>
+          <t>Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Psychiatry, University of California, San Diego, San Diego, CA, United States; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL, United States; Department of Medicine and Psychology and Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL, United States; Aarhus Institute of Advanced Studies, Aarhus University, Aarhus, Denmark; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Community and Systems Health Science, University of Arizona College of Nursing, Tucson, AZ, United States; Department of Medical Social Sciences, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Department of Neurology, Northwestern University Feinberg School of Medicine, Chicago, IL, United States; Nox Health, Suwanee, GA, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1230,22 +1230,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Karolina Perez, Wojciech Zaręba, Bonnie LaFleur, Xiaojuan Xia, Raymond L. Woosley, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Sairam Parthasarathy, Shivali Patel</t>
+          <t>Sairam Parthasarathy, Danielle Hyman, James E. Doherty, Ragy Saad, Jerry Zhang, Susan Morris, Lev Eldemir, Benjamin D. Fox, Mai Ka Ying Vang, Jessica Schroeder, Nell Marshall, Gregory Scott Parks</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona; Formerly Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Formerly Jazz Pharmaceuticals; Formerly Evidation Health; Evidation Health; Formerly Evidation Health; Evidation Health; Evidation Health; Jazz Pharmaceuticals</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281873662</t>
+          <t>https://openalex.org/W4282011829</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
+          <t>0759 A real world study assessing patient satisfaction in the primary care setting in relation to excessive daytime sleepiness in participants with obstructive sleep apnea</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.755</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.755</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,22 +1317,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sairam Parthasarathy, Danielle Hyman, James E. Doherty, Ragy Saad, Jerry Zhang, Susan Morris, Lev Eldemir, Benjamin D. Fox, Mai Ka Ying Vang, Jessica Schroeder, Nell Marshall, Gregory Scott Parks</t>
+          <t>Shivali Patel, Wojciech Zaręba, Sairam Parthasarathy, Karolina Perez, Chris Wendel, Xiaojuan Xia, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Raymond L. Woosley</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>University of Arizona; Formerly Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Jazz Pharmaceuticals; Formerly Jazz Pharmaceuticals; Formerly Evidation Health; Evidation Health; Formerly Evidation Health; Evidation Health; Evidation Health; Jazz Pharmaceuticals</t>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4282011829</t>
+          <t>https://openalex.org/W4293067000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0759 A real world study assessing patient satisfaction in the primary care setting in relation to excessive daytime sleepiness in participants with obstructive sleep apnea</t>
+          <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.755</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.755</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shivali Patel, Wojciech Zaręba, Sairam Parthasarathy, Karolina Perez, Chris Wendel, Xiaojuan Xia, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Raymond L. Woosley</t>
+          <t>Karolina Perez, Wojciech Zaręba, Bonnie LaFleur, Xiaojuan Xia, Raymond L. Woosley, Imran Patel, Stuart F. Quan, Michael Grandner, Shawn D. Youngstedt, Jerod Miller, Sairam Parthasarathy, Shivali Patel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
+          <t>University of Arizona; University of Rochester; University of Arizona; University of Rochester; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4293067000</t>
+          <t>https://openalex.org/W4281873662</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0696 The Application of a QTc Risk Score in Patients with Obstructive Sleep Apnea</t>
+          <t>0782 Changes in markers of ventricular repolarization and positive airway pressure therapy: A pilot study</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/sleep/zsac079.692</t>
+          <t>https://doi.org/10.1093/sleep/zsac079.778</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa B. Davidson, Mrinalini Kala, Rachel C Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
+          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa Davidson, Mrinalini Kala, Rachel C. Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
